--- a/students/ashbergg/209 WATERMARK.xlsx
+++ b/students/ashbergg/209 WATERMARK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22440" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="22440" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>jlkj</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>harm</t>
   </si>
@@ -57,9 +51,6 @@
     <t>children</t>
   </si>
   <si>
-    <t>chidlrenundereighteen</t>
-  </si>
-  <si>
     <t>blood</t>
   </si>
   <si>
@@ -75,70 +66,73 @@
     <t>abusetype</t>
   </si>
   <si>
-    <t>order should</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t>hfo</t>
-  </si>
-  <si>
-    <t>biwdb</t>
-  </si>
-  <si>
-    <t>fib</t>
-  </si>
-  <si>
-    <t>bfiw</t>
-  </si>
-  <si>
-    <t>buwi</t>
-  </si>
-  <si>
-    <t>bid</t>
-  </si>
-  <si>
-    <t>bcdu</t>
-  </si>
-  <si>
-    <t>bwi</t>
-  </si>
-  <si>
-    <t>biqb</t>
-  </si>
-  <si>
-    <t>bib</t>
-  </si>
-  <si>
-    <t>ibib</t>
-  </si>
-  <si>
-    <t>bibi</t>
-  </si>
-  <si>
-    <t>ibhk</t>
-  </si>
-  <si>
-    <t>bhkb</t>
-  </si>
-  <si>
-    <t>bibkb</t>
-  </si>
-  <si>
-    <t>bhb</t>
-  </si>
-  <si>
-    <t>bkb</t>
-  </si>
-  <si>
-    <t>bkjbk</t>
+    <t>bmc</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>u18</t>
+  </si>
+  <si>
+    <t>afterdage</t>
+  </si>
+  <si>
+    <t>n18</t>
+  </si>
+  <si>
+    <t>childrenundereighteen</t>
+  </si>
+  <si>
+    <t>living3</t>
+  </si>
+  <si>
+    <t>gotoengaged</t>
+  </si>
+  <si>
+    <t>prevmarriage</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>brelationship</t>
+  </si>
+  <si>
+    <t>pendingactions</t>
+  </si>
+  <si>
+    <t>docket</t>
+  </si>
+  <si>
+    <t>gotoabusedate</t>
+  </si>
+  <si>
+    <t>living5</t>
+  </si>
+  <si>
+    <t>living6</t>
+  </si>
+  <si>
+    <t>underfile</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>qdage</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -187,17 +181,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,136 +533,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AG2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/students/ashbergg/209 WATERMARK.xlsx
+++ b/students/ashbergg/209 WATERMARK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="22440" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="22440" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>harm</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>physharm</t>
+  </si>
+  <si>
+    <t>imminent</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>attemptharm</t>
   </si>
 </sst>
 </file>
@@ -533,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -653,8 +665,20 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -764,6 +788,18 @@
         <v>37</v>
       </c>
       <c r="AK2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/students/ashbergg/209 WATERMARK.xlsx
+++ b/students/ashbergg/209 WATERMARK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="22440" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="4960" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
-  <si>
-    <t>harm</t>
-  </si>
-  <si>
-    <t>sufabuse</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>issueorder</t>
   </si>
@@ -48,103 +42,61 @@
     <t>married</t>
   </si>
   <si>
-    <t>children</t>
-  </si>
-  <si>
     <t>blood</t>
   </si>
   <si>
-    <t>livetogether</t>
-  </si>
-  <si>
     <t>engaged</t>
   </si>
   <si>
     <t>abusedate</t>
   </si>
   <si>
-    <t>abusetype</t>
-  </si>
-  <si>
-    <t>bmc</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>u18</t>
-  </si>
-  <si>
-    <t>afterdage</t>
-  </si>
-  <si>
-    <t>n18</t>
-  </si>
-  <si>
-    <t>childrenundereighteen</t>
-  </si>
-  <si>
-    <t>living3</t>
-  </si>
-  <si>
-    <t>gotoengaged</t>
-  </si>
-  <si>
-    <t>prevmarriage</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>brelationship</t>
-  </si>
-  <si>
-    <t>pendingactions</t>
-  </si>
-  <si>
-    <t>docket</t>
-  </si>
-  <si>
-    <t>gotoabusedate</t>
-  </si>
-  <si>
-    <t>living5</t>
-  </si>
-  <si>
-    <t>living6</t>
-  </si>
-  <si>
-    <t>underfile</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>qdage</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
-    <t>physharm</t>
-  </si>
-  <si>
-    <t>imminent</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
     <t>attemptharm</t>
+  </si>
+  <si>
+    <t>gotoage</t>
+  </si>
+  <si>
+    <t>causeharm</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>sexualabuse</t>
+  </si>
+  <si>
+    <t>fear1</t>
+  </si>
+  <si>
+    <t>fear2</t>
+  </si>
+  <si>
+    <t>fear3</t>
+  </si>
+  <si>
+    <t>pastmarriage</t>
+  </si>
+  <si>
+    <t>abuse2</t>
+  </si>
+  <si>
+    <t>bloodrelation</t>
+  </si>
+  <si>
+    <t>childrentogether</t>
+  </si>
+  <si>
+    <t>noorder</t>
+  </si>
+  <si>
+    <t>abusedate2</t>
+  </si>
+  <si>
+    <t>abusedate3</t>
   </si>
 </sst>
 </file>
@@ -547,27 +499,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -576,231 +528,183 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
